--- a/Status Scan.xlsx
+++ b/Status Scan.xlsx
@@ -3375,7 +3375,9 @@
       <c r="F4" t="s" s="1">
         <v>669</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="2">
@@ -3396,7 +3398,9 @@
       <c r="F5" t="s" s="1">
         <v>670</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="2">
@@ -3417,7 +3421,9 @@
       <c r="F6" t="s" s="1">
         <v>397</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="2">
@@ -3438,7 +3444,9 @@
       <c r="F7" t="s" s="1">
         <v>402</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="2">
@@ -3459,7 +3467,9 @@
       <c r="F8" t="s" s="1">
         <v>396</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="2">
@@ -3480,7 +3490,9 @@
       <c r="F9" t="s" s="1">
         <v>400</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="2">
@@ -3501,7 +3513,9 @@
       <c r="F10" t="s" s="1">
         <v>398</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="2">
@@ -3522,7 +3536,9 @@
       <c r="F11" t="s" s="1">
         <v>401</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="2">
@@ -3543,7 +3559,9 @@
       <c r="F12" t="s" s="1">
         <v>363</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="2">
@@ -3564,7 +3582,9 @@
       <c r="F13" t="s" s="1">
         <v>369</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="2">
@@ -3585,7 +3605,9 @@
       <c r="F14" t="s" s="1">
         <v>776</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="2">
@@ -3606,7 +3628,9 @@
       <c r="F15" t="s" s="1">
         <v>365</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="2">
@@ -3627,7 +3651,9 @@
       <c r="F16" t="s" s="1">
         <v>300</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="2">
@@ -3648,7 +3674,9 @@
       <c r="F17" t="s" s="1">
         <v>364</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="2">
@@ -3942,7 +3970,9 @@
       <c r="F31" t="s" s="1">
         <v>448</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="2">
@@ -3963,7 +3993,9 @@
       <c r="F32" t="s" s="1">
         <v>161</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="2">
@@ -3984,7 +4016,9 @@
       <c r="F33" t="s" s="1">
         <v>449</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="2">
@@ -4341,7 +4375,9 @@
       <c r="F50" t="s" s="1">
         <v>551</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s" s="2">
@@ -4362,7 +4398,9 @@
       <c r="F51" t="s" s="1">
         <v>558</v>
       </c>
-      <c r="G51" s="8"/>
+      <c r="G51" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s" s="2">
@@ -4383,7 +4421,9 @@
       <c r="F52" t="s" s="1">
         <v>556</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s" s="2">
@@ -4404,7 +4444,9 @@
       <c r="F53" t="s" s="1">
         <v>665</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s" s="2">
@@ -4446,7 +4488,9 @@
       <c r="F55" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="G55" s="8"/>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s" s="2">
@@ -4467,7 +4511,9 @@
       <c r="F56" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="G56" s="8"/>
+      <c r="G56" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s" s="2">
@@ -4488,7 +4534,9 @@
       <c r="F57" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="G57" s="8"/>
+      <c r="G57" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="2">
@@ -4509,7 +4557,9 @@
       <c r="F58" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="G58" s="8"/>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="2">
@@ -4551,7 +4601,9 @@
       <c r="F60" t="s" s="1">
         <v>796</v>
       </c>
-      <c r="G60" s="8"/>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="2">
@@ -4572,7 +4624,9 @@
       <c r="F61" t="s" s="1">
         <v>797</v>
       </c>
-      <c r="G61" s="8"/>
+      <c r="G61" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="2">
@@ -4593,7 +4647,9 @@
       <c r="F62" t="s" s="1">
         <v>798</v>
       </c>
-      <c r="G62" s="8"/>
+      <c r="G62" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="2">
@@ -4614,7 +4670,9 @@
       <c r="F63" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="G63" s="8"/>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="2">
@@ -4635,7 +4693,9 @@
       <c r="F64" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="G64" s="8"/>
+      <c r="G64" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="2">
@@ -4656,7 +4716,9 @@
       <c r="F65" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="G65" s="8"/>
+      <c r="G65" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="2">
@@ -4677,7 +4739,9 @@
       <c r="F66" t="s" s="1">
         <v>78</v>
       </c>
-      <c r="G66" s="8"/>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="2">
@@ -4719,7 +4783,9 @@
       <c r="F68" t="s" s="1">
         <v>667</v>
       </c>
-      <c r="G68" s="8"/>
+      <c r="G68" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="2">
@@ -4740,7 +4806,9 @@
       <c r="F69" t="s" s="1">
         <v>779</v>
       </c>
-      <c r="G69" s="8"/>
+      <c r="G69" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="2">
@@ -4761,7 +4829,9 @@
       <c r="F70" t="s" s="1">
         <v>698</v>
       </c>
-      <c r="G70" s="8"/>
+      <c r="G70" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="2">
@@ -4782,7 +4852,9 @@
       <c r="F71" t="s" s="1">
         <v>699</v>
       </c>
-      <c r="G71" s="8"/>
+      <c r="G71" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="2">
@@ -4803,7 +4875,9 @@
       <c r="F72" t="s" s="1">
         <v>97</v>
       </c>
-      <c r="G72" s="8"/>
+      <c r="G72" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="2">
@@ -4824,7 +4898,9 @@
       <c r="F73" t="s" s="1">
         <v>101</v>
       </c>
-      <c r="G73" s="8"/>
+      <c r="G73" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="2">
@@ -4845,7 +4921,9 @@
       <c r="F74" t="s" s="1">
         <v>150</v>
       </c>
-      <c r="G74" s="8"/>
+      <c r="G74" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="2">
@@ -4887,7 +4965,9 @@
       <c r="F76" t="s" s="1">
         <v>700</v>
       </c>
-      <c r="G76" s="8"/>
+      <c r="G76" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="2">
@@ -4908,7 +4988,9 @@
       <c r="F77" t="s" s="1">
         <v>694</v>
       </c>
-      <c r="G77" s="8"/>
+      <c r="G77" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="2">
@@ -4929,7 +5011,9 @@
       <c r="F78" t="s" s="1">
         <v>690</v>
       </c>
-      <c r="G78" s="8"/>
+      <c r="G78" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="2">
@@ -4950,7 +5034,9 @@
       <c r="F79" t="s" s="1">
         <v>701</v>
       </c>
-      <c r="G79" s="8"/>
+      <c r="G79" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="2">
@@ -4971,7 +5057,9 @@
       <c r="F80" t="s" s="1">
         <v>695</v>
       </c>
-      <c r="G80" s="8"/>
+      <c r="G80" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="2">
@@ -4992,7 +5080,9 @@
       <c r="F81" t="s" s="1">
         <v>696</v>
       </c>
-      <c r="G81" s="8"/>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="2">
@@ -5013,7 +5103,9 @@
       <c r="F82" t="s" s="1">
         <v>687</v>
       </c>
-      <c r="G82" s="8"/>
+      <c r="G82" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="2">
@@ -5034,7 +5126,9 @@
       <c r="F83" t="s" s="1">
         <v>691</v>
       </c>
-      <c r="G83" s="8"/>
+      <c r="G83" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="2">
@@ -5055,7 +5149,9 @@
       <c r="F84" t="s" s="1">
         <v>149</v>
       </c>
-      <c r="G84" s="8"/>
+      <c r="G84" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="2">
@@ -5076,7 +5172,9 @@
       <c r="F85" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="G85" s="8"/>
+      <c r="G85" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="2">
@@ -5097,7 +5195,9 @@
       <c r="F86" t="s" s="1">
         <v>185</v>
       </c>
-      <c r="G86" s="8"/>
+      <c r="G86" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="2">
@@ -5118,7 +5218,9 @@
       <c r="F87" t="s" s="1">
         <v>684</v>
       </c>
-      <c r="G87" s="8"/>
+      <c r="G87" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="2">
@@ -5139,7 +5241,9 @@
       <c r="F88" t="s" s="1">
         <v>692</v>
       </c>
-      <c r="G88" s="8"/>
+      <c r="G88" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="2">
@@ -5160,7 +5264,9 @@
       <c r="F89" t="s" s="1">
         <v>685</v>
       </c>
-      <c r="G89" s="8"/>
+      <c r="G89" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="2">
@@ -5181,7 +5287,9 @@
       <c r="F90" t="s" s="1">
         <v>682</v>
       </c>
-      <c r="G90" s="8"/>
+      <c r="G90" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s" s="2">
@@ -5202,7 +5310,9 @@
       <c r="F91" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="G91" s="8"/>
+      <c r="G91" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s" s="2">
@@ -5223,7 +5333,9 @@
       <c r="F92" t="s" s="1">
         <v>637</v>
       </c>
-      <c r="G92" s="8"/>
+      <c r="G92" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s" s="2">
@@ -5244,7 +5356,9 @@
       <c r="F93" t="s" s="1">
         <v>639</v>
       </c>
-      <c r="G93" s="8"/>
+      <c r="G93" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s" s="2">
@@ -5265,7 +5379,9 @@
       <c r="F94" t="s" s="1">
         <v>626</v>
       </c>
-      <c r="G94" s="8"/>
+      <c r="G94" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s" s="2">
@@ -5286,7 +5402,9 @@
       <c r="F95" t="s" s="1">
         <v>627</v>
       </c>
-      <c r="G95" s="8"/>
+      <c r="G95" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s" s="2">
@@ -5307,7 +5425,9 @@
       <c r="F96" t="s" s="1">
         <v>226</v>
       </c>
-      <c r="G96" s="8"/>
+      <c r="G96" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s" s="2">
@@ -5328,7 +5448,9 @@
       <c r="F97" t="s" s="1">
         <v>228</v>
       </c>
-      <c r="G97" s="8"/>
+      <c r="G97" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s" s="2">
@@ -5349,7 +5471,9 @@
       <c r="F98" t="s" s="1">
         <v>225</v>
       </c>
-      <c r="G98" s="8"/>
+      <c r="G98" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s" s="2">
@@ -5370,7 +5494,9 @@
       <c r="F99" t="s" s="1">
         <v>227</v>
       </c>
-      <c r="G99" s="8"/>
+      <c r="G99" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s" s="2">
@@ -5391,7 +5517,9 @@
       <c r="F100" t="s" s="1">
         <v>491</v>
       </c>
-      <c r="G100" s="8"/>
+      <c r="G100" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s" s="2">
@@ -5433,7 +5561,9 @@
       <c r="F102" t="s" s="1">
         <v>483</v>
       </c>
-      <c r="G102" s="8"/>
+      <c r="G102" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s" s="2">
@@ -5454,7 +5584,9 @@
       <c r="F103" t="s" s="1">
         <v>489</v>
       </c>
-      <c r="G103" s="8"/>
+      <c r="G103" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s" s="2">
@@ -5475,7 +5607,9 @@
       <c r="F104" t="s" s="1">
         <v>621</v>
       </c>
-      <c r="G104" s="8"/>
+      <c r="G104" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s" s="2">
@@ -5496,7 +5630,9 @@
       <c r="F105" t="s" s="1">
         <v>622</v>
       </c>
-      <c r="G105" s="8"/>
+      <c r="G105" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s" s="2">
@@ -5517,7 +5653,9 @@
       <c r="F106" t="s" s="1">
         <v>628</v>
       </c>
-      <c r="G106" s="8"/>
+      <c r="G106" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s" s="2">
@@ -5538,7 +5676,9 @@
       <c r="F107" t="s" s="1">
         <v>624</v>
       </c>
-      <c r="G107" s="8"/>
+      <c r="G107" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s" s="2">
@@ -5559,7 +5699,9 @@
       <c r="F108" t="s" s="1">
         <v>638</v>
       </c>
-      <c r="G108" s="8"/>
+      <c r="G108" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s" s="2">
@@ -5580,7 +5722,9 @@
       <c r="F109" t="s" s="1">
         <v>511</v>
       </c>
-      <c r="G109" s="8"/>
+      <c r="G109" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s" s="2">
@@ -5601,7 +5745,9 @@
       <c r="F110" t="s" s="1">
         <v>501</v>
       </c>
-      <c r="G110" s="8"/>
+      <c r="G110" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s" s="2">
@@ -5622,7 +5768,9 @@
       <c r="F111" t="s" s="1">
         <v>502</v>
       </c>
-      <c r="G111" s="8"/>
+      <c r="G111" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s" s="2">
@@ -5643,7 +5791,9 @@
       <c r="F112" t="s" s="1">
         <v>503</v>
       </c>
-      <c r="G112" s="8"/>
+      <c r="G112" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s" s="2">
@@ -5664,7 +5814,9 @@
       <c r="F113" t="s" s="1">
         <v>495</v>
       </c>
-      <c r="G113" s="8"/>
+      <c r="G113" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s" s="2">
@@ -5706,7 +5858,9 @@
       <c r="F115" t="s" s="1">
         <v>630</v>
       </c>
-      <c r="G115" s="8"/>
+      <c r="G115" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s" s="2">
@@ -5727,7 +5881,9 @@
       <c r="F116" t="s" s="1">
         <v>575</v>
       </c>
-      <c r="G116" s="8"/>
+      <c r="G116" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s" s="2">
@@ -5748,7 +5904,9 @@
       <c r="F117" t="s" s="1">
         <v>619</v>
       </c>
-      <c r="G117" s="8"/>
+      <c r="G117" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s" s="2">
@@ -5769,7 +5927,9 @@
       <c r="F118" t="s" s="1">
         <v>559</v>
       </c>
-      <c r="G118" s="8"/>
+      <c r="G118" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s" s="2">
@@ -5790,7 +5950,9 @@
       <c r="F119" t="s" s="1">
         <v>308</v>
       </c>
-      <c r="G119" s="8"/>
+      <c r="G119" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s" s="2">
@@ -5811,7 +5973,9 @@
       <c r="F120" t="s" s="1">
         <v>222</v>
       </c>
-      <c r="G120" s="8"/>
+      <c r="G120" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s" s="2">
@@ -5832,7 +5996,9 @@
       <c r="F121" t="s" s="1">
         <v>223</v>
       </c>
-      <c r="G121" s="8"/>
+      <c r="G121" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s" s="2">
@@ -5853,7 +6019,9 @@
       <c r="F122" t="s" s="1">
         <v>688</v>
       </c>
-      <c r="G122" s="8"/>
+      <c r="G122" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s" s="2">
@@ -5874,7 +6042,9 @@
       <c r="F123" t="s" s="1">
         <v>657</v>
       </c>
-      <c r="G123" s="8"/>
+      <c r="G123" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s" s="2">
@@ -5895,7 +6065,9 @@
       <c r="F124" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="G124" s="8"/>
+      <c r="G124" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s" s="2">
@@ -5916,7 +6088,9 @@
       <c r="F125" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="G125" s="8"/>
+      <c r="G125" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s" s="2">
@@ -5937,7 +6111,9 @@
       <c r="F126" t="s" s="1">
         <v>117</v>
       </c>
-      <c r="G126" s="8"/>
+      <c r="G126" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s" s="2">
@@ -5958,7 +6134,9 @@
       <c r="F127" t="s" s="1">
         <v>231</v>
       </c>
-      <c r="G127" s="8"/>
+      <c r="G127" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s" s="2">
@@ -5979,7 +6157,9 @@
       <c r="F128" t="s" s="1">
         <v>660</v>
       </c>
-      <c r="G128" s="8"/>
+      <c r="G128" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s" s="2">
@@ -6000,7 +6180,9 @@
       <c r="F129" t="s" s="1">
         <v>659</v>
       </c>
-      <c r="G129" s="8"/>
+      <c r="G129" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s" s="2">
@@ -6021,7 +6203,9 @@
       <c r="F130" t="s" s="1">
         <v>207</v>
       </c>
-      <c r="G130" s="8"/>
+      <c r="G130" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s" s="2">
@@ -6042,7 +6226,9 @@
       <c r="F131" t="s" s="1">
         <v>209</v>
       </c>
-      <c r="G131" s="8"/>
+      <c r="G131" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s" s="2">
@@ -6063,7 +6249,9 @@
       <c r="F132" t="s" s="1">
         <v>651</v>
       </c>
-      <c r="G132" s="8"/>
+      <c r="G132" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s" s="2">
@@ -6084,7 +6272,9 @@
       <c r="F133" t="s" s="1">
         <v>315</v>
       </c>
-      <c r="G133" s="8"/>
+      <c r="G133" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s" s="2">
@@ -6105,7 +6295,9 @@
       <c r="F134" t="s" s="1">
         <v>312</v>
       </c>
-      <c r="G134" s="8"/>
+      <c r="G134" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s" s="2">
@@ -6126,7 +6318,9 @@
       <c r="F135" t="s" s="1">
         <v>353</v>
       </c>
-      <c r="G135" s="8"/>
+      <c r="G135" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s" s="2">
@@ -6147,7 +6341,9 @@
       <c r="F136" t="s" s="1">
         <v>403</v>
       </c>
-      <c r="G136" s="8"/>
+      <c r="G136" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s" s="2">
@@ -6168,7 +6364,9 @@
       <c r="F137" t="s" s="1">
         <v>399</v>
       </c>
-      <c r="G137" s="8"/>
+      <c r="G137" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s" s="2">
@@ -6231,7 +6429,9 @@
       <c r="F140" t="s" s="1">
         <v>355</v>
       </c>
-      <c r="G140" s="8"/>
+      <c r="G140" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s" s="2">
@@ -6294,7 +6494,9 @@
       <c r="F143" t="s" s="1">
         <v>362</v>
       </c>
-      <c r="G143" s="8"/>
+      <c r="G143" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s" s="2">
@@ -6315,7 +6517,9 @@
       <c r="F144" t="s" s="1">
         <v>360</v>
       </c>
-      <c r="G144" s="8"/>
+      <c r="G144" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s" s="2">
@@ -6336,7 +6540,9 @@
       <c r="F145" t="s" s="1">
         <v>775</v>
       </c>
-      <c r="G145" s="8"/>
+      <c r="G145" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s" s="2">
@@ -6357,7 +6563,9 @@
       <c r="F146" t="s" s="1">
         <v>746</v>
       </c>
-      <c r="G146" s="8"/>
+      <c r="G146" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s" s="2">
@@ -6378,7 +6586,9 @@
       <c r="F147" t="s" s="1">
         <v>777</v>
       </c>
-      <c r="G147" s="8"/>
+      <c r="G147" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s" s="2">
@@ -6399,7 +6609,9 @@
       <c r="F148" t="s" s="1">
         <v>778</v>
       </c>
-      <c r="G148" s="8"/>
+      <c r="G148" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s" s="2">
@@ -6420,7 +6632,9 @@
       <c r="F149" t="s" s="1">
         <v>771</v>
       </c>
-      <c r="G149" s="8"/>
+      <c r="G149" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s" s="2">
@@ -6441,7 +6655,9 @@
       <c r="F150" t="s" s="1">
         <v>473</v>
       </c>
-      <c r="G150" s="8"/>
+      <c r="G150" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s" s="2">
@@ -6462,7 +6678,9 @@
       <c r="F151" t="s" s="1">
         <v>472</v>
       </c>
-      <c r="G151" s="8"/>
+      <c r="G151" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s" s="2">
@@ -6483,7 +6701,9 @@
       <c r="F152" t="s" s="1">
         <v>464</v>
       </c>
-      <c r="G152" s="8"/>
+      <c r="G152" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s" s="2">
@@ -6546,7 +6766,9 @@
       <c r="F155" t="s" s="1">
         <v>784</v>
       </c>
-      <c r="G155" s="8"/>
+      <c r="G155" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s" s="2">
@@ -6567,7 +6789,9 @@
       <c r="F156" t="s" s="1">
         <v>142</v>
       </c>
-      <c r="G156" s="8"/>
+      <c r="G156" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s" s="2">
@@ -6588,7 +6812,9 @@
       <c r="F157" t="s" s="1">
         <v>144</v>
       </c>
-      <c r="G157" s="8"/>
+      <c r="G157" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s" s="2">
@@ -6609,7 +6835,9 @@
       <c r="F158" t="s" s="1">
         <v>581</v>
       </c>
-      <c r="G158" s="8"/>
+      <c r="G158" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s" s="2">
@@ -6630,7 +6858,9 @@
       <c r="F159" t="s" s="1">
         <v>100</v>
       </c>
-      <c r="G159" s="8"/>
+      <c r="G159" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s" s="2">
@@ -6672,7 +6902,9 @@
       <c r="F161" t="s" s="1">
         <v>414</v>
       </c>
-      <c r="G161" s="8"/>
+      <c r="G161" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s" s="2">
@@ -6693,7 +6925,9 @@
       <c r="F162" t="s" s="1">
         <v>479</v>
       </c>
-      <c r="G162" s="8"/>
+      <c r="G162" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s" s="2">
@@ -6714,7 +6948,9 @@
       <c r="F163" t="s" s="1">
         <v>482</v>
       </c>
-      <c r="G163" s="8"/>
+      <c r="G163" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s" s="2">
@@ -6735,7 +6971,9 @@
       <c r="F164" t="s" s="1">
         <v>492</v>
       </c>
-      <c r="G164" s="8"/>
+      <c r="G164" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s" s="2">
@@ -6756,7 +6994,9 @@
       <c r="F165" t="s" s="1">
         <v>506</v>
       </c>
-      <c r="G165" s="8"/>
+      <c r="G165" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s" s="2">
@@ -6882,7 +7122,9 @@
       <c r="F171" t="s" s="1">
         <v>485</v>
       </c>
-      <c r="G171" s="8"/>
+      <c r="G171" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s" s="2">
@@ -6903,7 +7145,9 @@
       <c r="F172" t="s" s="1">
         <v>500</v>
       </c>
-      <c r="G172" s="8"/>
+      <c r="G172" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s" s="2">
@@ -6924,7 +7168,9 @@
       <c r="F173" t="s" s="1">
         <v>505</v>
       </c>
-      <c r="G173" s="8"/>
+      <c r="G173" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s" s="2">
@@ -6987,7 +7233,9 @@
       <c r="F176" t="s" s="1">
         <v>510</v>
       </c>
-      <c r="G176" s="8"/>
+      <c r="G176" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s" s="2">
@@ -7008,7 +7256,9 @@
       <c r="F177" t="s" s="1">
         <v>486</v>
       </c>
-      <c r="G177" s="8"/>
+      <c r="G177" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s" s="2">
@@ -7050,7 +7300,9 @@
       <c r="F179" t="s" s="1">
         <v>508</v>
       </c>
-      <c r="G179" s="8"/>
+      <c r="G179" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s" s="2">
@@ -7218,7 +7470,9 @@
       <c r="F187" t="s" s="1">
         <v>388</v>
       </c>
-      <c r="G187" s="8"/>
+      <c r="G187" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s" s="2">
@@ -7239,7 +7493,9 @@
       <c r="F188" t="s" s="1">
         <v>336</v>
       </c>
-      <c r="G188" s="8"/>
+      <c r="G188" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s" s="2">
@@ -7281,7 +7537,9 @@
       <c r="F190" t="s" s="1">
         <v>337</v>
       </c>
-      <c r="G190" s="8"/>
+      <c r="G190" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s" s="2">
@@ -7302,7 +7560,9 @@
       <c r="F191" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G191" s="8"/>
+      <c r="G191" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s" s="2">
@@ -7323,7 +7583,9 @@
       <c r="F192" t="s" s="1">
         <v>338</v>
       </c>
-      <c r="G192" s="8"/>
+      <c r="G192" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s" s="2">
@@ -7344,7 +7606,9 @@
       <c r="F193" t="s" s="1">
         <v>736</v>
       </c>
-      <c r="G193" s="8"/>
+      <c r="G193" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s" s="2">
@@ -7365,7 +7629,9 @@
       <c r="F194" t="s" s="1">
         <v>765</v>
       </c>
-      <c r="G194" s="8"/>
+      <c r="G194" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s" s="2">
@@ -7386,7 +7652,9 @@
       <c r="F195" t="s" s="1">
         <v>766</v>
       </c>
-      <c r="G195" s="8"/>
+      <c r="G195" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s" s="2">
@@ -7407,7 +7675,9 @@
       <c r="F196" t="s" s="1">
         <v>769</v>
       </c>
-      <c r="G196" s="8"/>
+      <c r="G196" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s" s="2">
@@ -7428,7 +7698,9 @@
       <c r="F197" t="s" s="1">
         <v>767</v>
       </c>
-      <c r="G197" s="8"/>
+      <c r="G197" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s" s="2">
@@ -7449,7 +7721,9 @@
       <c r="F198" t="s" s="1">
         <v>457</v>
       </c>
-      <c r="G198" s="8"/>
+      <c r="G198" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s" s="2">
@@ -7470,7 +7744,9 @@
       <c r="F199" t="s" s="1">
         <v>171</v>
       </c>
-      <c r="G199" s="8"/>
+      <c r="G199" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s" s="2">
@@ -7491,7 +7767,9 @@
       <c r="F200" t="s" s="1">
         <v>202</v>
       </c>
-      <c r="G200" s="8"/>
+      <c r="G200" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s" s="2">
@@ -7512,7 +7790,9 @@
       <c r="F201" t="s" s="1">
         <v>755</v>
       </c>
-      <c r="G201" s="8"/>
+      <c r="G201" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s" s="2">
@@ -7533,7 +7813,9 @@
       <c r="F202" t="s" s="1">
         <v>361</v>
       </c>
-      <c r="G202" s="8"/>
+      <c r="G202" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s" s="2">
@@ -7554,7 +7836,9 @@
       <c r="F203" t="s" s="1">
         <v>368</v>
       </c>
-      <c r="G203" s="8"/>
+      <c r="G203" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s" s="2">
@@ -7575,7 +7859,9 @@
       <c r="F204" t="s" s="1">
         <v>372</v>
       </c>
-      <c r="G204" s="8"/>
+      <c r="G204" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s" s="2">
@@ -7596,7 +7882,9 @@
       <c r="F205" t="s" s="1">
         <v>462</v>
       </c>
-      <c r="G205" s="8"/>
+      <c r="G205" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s" s="2">
@@ -7617,7 +7905,9 @@
       <c r="F206" t="s" s="1">
         <v>373</v>
       </c>
-      <c r="G206" s="8"/>
+      <c r="G206" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s" s="2">
@@ -7638,7 +7928,9 @@
       <c r="F207" t="s" s="1">
         <v>339</v>
       </c>
-      <c r="G207" s="8"/>
+      <c r="G207" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s" s="2">
@@ -7680,7 +7972,9 @@
       <c r="F209" t="s" s="1">
         <v>320</v>
       </c>
-      <c r="G209" s="8"/>
+      <c r="G209" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s" s="2">
@@ -7701,7 +7995,9 @@
       <c r="F210" t="s" s="1">
         <v>436</v>
       </c>
-      <c r="G210" s="8"/>
+      <c r="G210" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s" s="2">
@@ -7722,7 +8018,9 @@
       <c r="F211" t="s" s="1">
         <v>444</v>
       </c>
-      <c r="G211" s="8"/>
+      <c r="G211" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s" s="2">
@@ -7743,7 +8041,9 @@
       <c r="F212" t="s" s="1">
         <v>442</v>
       </c>
-      <c r="G212" s="8"/>
+      <c r="G212" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s" s="2">
@@ -7764,7 +8064,9 @@
       <c r="F213" t="s" s="1">
         <v>443</v>
       </c>
-      <c r="G213" s="8"/>
+      <c r="G213" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s" s="2">
@@ -7785,7 +8087,9 @@
       <c r="F214" t="s" s="1">
         <v>167</v>
       </c>
-      <c r="G214" s="8"/>
+      <c r="G214" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s" s="2">
@@ -7806,7 +8110,9 @@
       <c r="F215" t="s" s="1">
         <v>168</v>
       </c>
-      <c r="G215" s="8"/>
+      <c r="G215" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s" s="2">
@@ -7827,7 +8133,9 @@
       <c r="F216" t="s" s="1">
         <v>212</v>
       </c>
-      <c r="G216" s="8"/>
+      <c r="G216" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s" s="2">
@@ -7848,7 +8156,9 @@
       <c r="F217" t="s" s="1">
         <v>642</v>
       </c>
-      <c r="G217" s="8"/>
+      <c r="G217" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s" s="2">
@@ -7869,7 +8179,9 @@
       <c r="F218" t="s" s="1">
         <v>644</v>
       </c>
-      <c r="G218" s="8"/>
+      <c r="G218" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s" s="2">
@@ -7890,7 +8202,9 @@
       <c r="F219" t="s" s="1">
         <v>645</v>
       </c>
-      <c r="G219" s="8"/>
+      <c r="G219" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s" s="2">
@@ -7911,7 +8225,9 @@
       <c r="F220" t="s" s="1">
         <v>643</v>
       </c>
-      <c r="G220" s="8"/>
+      <c r="G220" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s" s="2">
@@ -7932,7 +8248,9 @@
       <c r="F221" t="s" s="1">
         <v>351</v>
       </c>
-      <c r="G221" s="8"/>
+      <c r="G221" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s" s="2">
@@ -7953,7 +8271,9 @@
       <c r="F222" t="s" s="1">
         <v>466</v>
       </c>
-      <c r="G222" s="8"/>
+      <c r="G222" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s" s="2">
@@ -7974,7 +8294,9 @@
       <c r="F223" t="s" s="1">
         <v>465</v>
       </c>
-      <c r="G223" s="8"/>
+      <c r="G223" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s" s="2">
@@ -7995,7 +8317,9 @@
       <c r="F224" t="s" s="1">
         <v>327</v>
       </c>
-      <c r="G224" s="8"/>
+      <c r="G224" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s" s="2">
@@ -8016,7 +8340,9 @@
       <c r="F225" t="s" s="1">
         <v>757</v>
       </c>
-      <c r="G225" s="8"/>
+      <c r="G225" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s" s="2">
@@ -8037,7 +8363,9 @@
       <c r="F226" t="s" s="1">
         <v>758</v>
       </c>
-      <c r="G226" s="8"/>
+      <c r="G226" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s" s="2">
@@ -8058,7 +8386,9 @@
       <c r="F227" t="s" s="1">
         <v>326</v>
       </c>
-      <c r="G227" s="8"/>
+      <c r="G227" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s" s="2">
@@ -8079,7 +8409,9 @@
       <c r="F228" t="s" s="1">
         <v>759</v>
       </c>
-      <c r="G228" s="8"/>
+      <c r="G228" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s" s="2">
@@ -8100,7 +8432,9 @@
       <c r="F229" t="s" s="1">
         <v>544</v>
       </c>
-      <c r="G229" s="8"/>
+      <c r="G229" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s" s="2">
@@ -8121,7 +8455,9 @@
       <c r="F230" t="s" s="1">
         <v>546</v>
       </c>
-      <c r="G230" s="8"/>
+      <c r="G230" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s" s="2">
@@ -8142,7 +8478,9 @@
       <c r="F231" t="s" s="1">
         <v>520</v>
       </c>
-      <c r="G231" s="8"/>
+      <c r="G231" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s" s="2">
@@ -8163,7 +8501,9 @@
       <c r="F232" t="s" s="1">
         <v>348</v>
       </c>
-      <c r="G232" s="8"/>
+      <c r="G232" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s" s="2">
@@ -8226,7 +8566,9 @@
       <c r="F235" t="s" s="1">
         <v>346</v>
       </c>
-      <c r="G235" s="8"/>
+      <c r="G235" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s" s="2">
@@ -8247,7 +8589,9 @@
       <c r="F236" t="s" s="1">
         <v>341</v>
       </c>
-      <c r="G236" s="8"/>
+      <c r="G236" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s" s="2">
@@ -8268,7 +8612,9 @@
       <c r="F237" t="s" s="1">
         <v>352</v>
       </c>
-      <c r="G237" s="8"/>
+      <c r="G237" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s" s="2">
@@ -8289,7 +8635,9 @@
       <c r="F238" t="s" s="1">
         <v>751</v>
       </c>
-      <c r="G238" s="8"/>
+      <c r="G238" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s" s="2">
@@ -8310,7 +8658,9 @@
       <c r="F239" t="s" s="1">
         <v>752</v>
       </c>
-      <c r="G239" s="8"/>
+      <c r="G239" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s" s="2">
@@ -8331,7 +8681,9 @@
       <c r="F240" t="s" s="1">
         <v>749</v>
       </c>
-      <c r="G240" s="8"/>
+      <c r="G240" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s" s="2">
@@ -8352,7 +8704,9 @@
       <c r="F241" t="s" s="1">
         <v>753</v>
       </c>
-      <c r="G241" s="8"/>
+      <c r="G241" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s" s="2">
@@ -8373,7 +8727,9 @@
       <c r="F242" t="s" s="1">
         <v>748</v>
       </c>
-      <c r="G242" s="8"/>
+      <c r="G242" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s" s="2">
@@ -8415,7 +8771,9 @@
       <c r="F244" t="s" s="1">
         <v>750</v>
       </c>
-      <c r="G244" s="8"/>
+      <c r="G244" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s" s="2">
@@ -8436,7 +8794,9 @@
       <c r="F245" t="s" s="1">
         <v>741</v>
       </c>
-      <c r="G245" s="8"/>
+      <c r="G245" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s" s="2">
@@ -8478,7 +8838,9 @@
       <c r="F247" t="s" s="1">
         <v>334</v>
       </c>
-      <c r="G247" s="8"/>
+      <c r="G247" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s" s="2">
@@ -8499,7 +8861,9 @@
       <c r="F248" t="s" s="1">
         <v>335</v>
       </c>
-      <c r="G248" s="8"/>
+      <c r="G248" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s" s="2">
@@ -8583,7 +8947,9 @@
       <c r="F252" t="s" s="1">
         <v>333</v>
       </c>
-      <c r="G252" s="8"/>
+      <c r="G252" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s" s="2">
@@ -8604,7 +8970,9 @@
       <c r="F253" t="s" s="1">
         <v>531</v>
       </c>
-      <c r="G253" s="8"/>
+      <c r="G253" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s" s="2">
@@ -8625,7 +8993,9 @@
       <c r="F254" t="s" s="1">
         <v>537</v>
       </c>
-      <c r="G254" s="8"/>
+      <c r="G254" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s" s="2">
@@ -8646,7 +9016,9 @@
       <c r="F255" t="s" s="1">
         <v>530</v>
       </c>
-      <c r="G255" s="8"/>
+      <c r="G255" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s" s="2">
@@ -8667,7 +9039,9 @@
       <c r="F256" t="s" s="1">
         <v>536</v>
       </c>
-      <c r="G256" s="8"/>
+      <c r="G256" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s" s="2">
@@ -8688,7 +9062,9 @@
       <c r="F257" t="s" s="1">
         <v>529</v>
       </c>
-      <c r="G257" s="8"/>
+      <c r="G257" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s" s="2">
@@ -8709,7 +9085,9 @@
       <c r="F258" t="s" s="1">
         <v>199</v>
       </c>
-      <c r="G258" s="8"/>
+      <c r="G258" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s" s="2">
@@ -8730,7 +9108,9 @@
       <c r="F259" t="s" s="1">
         <v>488</v>
       </c>
-      <c r="G259" s="8"/>
+      <c r="G259" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s" s="2">
@@ -8751,7 +9131,9 @@
       <c r="F260" t="s" s="1">
         <v>490</v>
       </c>
-      <c r="G260" s="8"/>
+      <c r="G260" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s" s="2">
@@ -8772,7 +9154,9 @@
       <c r="F261" t="s" s="1">
         <v>487</v>
       </c>
-      <c r="G261" s="8"/>
+      <c r="G261" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s" s="2">
@@ -8793,7 +9177,9 @@
       <c r="F262" t="s" s="1">
         <v>535</v>
       </c>
-      <c r="G262" s="8"/>
+      <c r="G262" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s" s="2">
@@ -8814,7 +9200,9 @@
       <c r="F263" t="s" s="1">
         <v>387</v>
       </c>
-      <c r="G263" s="8"/>
+      <c r="G263" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s" s="2">
@@ -8856,7 +9244,9 @@
       <c r="F265" t="s" s="1">
         <v>395</v>
       </c>
-      <c r="G265" s="8"/>
+      <c r="G265" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s" s="2">
@@ -8877,7 +9267,9 @@
       <c r="F266" t="s" s="1">
         <v>386</v>
       </c>
-      <c r="G266" s="8"/>
+      <c r="G266" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s" s="2">
@@ -8898,7 +9290,9 @@
       <c r="F267" t="s" s="1">
         <v>389</v>
       </c>
-      <c r="G267" s="8"/>
+      <c r="G267" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s" s="2">
@@ -9093,7 +9487,9 @@
       <c r="F276" t="s" s="1">
         <v>653</v>
       </c>
-      <c r="G276" s="8"/>
+      <c r="G276" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s" s="2">
@@ -9114,7 +9510,9 @@
       <c r="F277" t="s" s="1">
         <v>654</v>
       </c>
-      <c r="G277" s="8"/>
+      <c r="G277" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s" s="2">
@@ -9135,7 +9533,9 @@
       <c r="F278" t="s" s="1">
         <v>655</v>
       </c>
-      <c r="G278" s="8"/>
+      <c r="G278" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s" s="2">
@@ -9157,7 +9557,7 @@
         <v>408</v>
       </c>
       <c r="G279" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -9522,7 +9922,9 @@
       <c r="F295" t="s" s="1">
         <v>565</v>
       </c>
-      <c r="G295" s="8"/>
+      <c r="G295" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s" s="2">
@@ -9543,7 +9945,9 @@
       <c r="F296" t="s" s="1">
         <v>557</v>
       </c>
-      <c r="G296" s="8"/>
+      <c r="G296" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s" s="2">
@@ -9564,7 +9968,9 @@
       <c r="F297" t="s" s="1">
         <v>302</v>
       </c>
-      <c r="G297" s="8"/>
+      <c r="G297" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s" s="2">
@@ -9585,7 +9991,9 @@
       <c r="F298" t="s" s="1">
         <v>305</v>
       </c>
-      <c r="G298" s="8"/>
+      <c r="G298" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s" s="2">
@@ -9607,7 +10015,7 @@
         <v>650</v>
       </c>
       <c r="G299" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
@@ -9673,7 +10081,9 @@
       <c r="F302" t="s" s="1">
         <v>438</v>
       </c>
-      <c r="G302" s="8"/>
+      <c r="G302" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s" s="2">
@@ -9694,7 +10104,9 @@
       <c r="F303" t="s" s="1">
         <v>586</v>
       </c>
-      <c r="G303" s="8"/>
+      <c r="G303" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s" s="2">
@@ -9715,7 +10127,9 @@
       <c r="F304" t="s" s="1">
         <v>439</v>
       </c>
-      <c r="G304" s="8"/>
+      <c r="G304" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s" s="2">
@@ -9736,7 +10150,9 @@
       <c r="F305" t="s" s="1">
         <v>417</v>
       </c>
-      <c r="G305" s="8"/>
+      <c r="G305" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s" s="2">
@@ -9757,7 +10173,9 @@
       <c r="F306" t="s" s="1">
         <v>418</v>
       </c>
-      <c r="G306" s="8"/>
+      <c r="G306" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s" s="2">
@@ -9778,7 +10196,9 @@
       <c r="F307" t="s" s="1">
         <v>440</v>
       </c>
-      <c r="G307" s="8"/>
+      <c r="G307" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s" s="2">
@@ -9799,7 +10219,9 @@
       <c r="F308" t="s" s="1">
         <v>588</v>
       </c>
-      <c r="G308" s="8"/>
+      <c r="G308" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s" s="2">
@@ -9820,7 +10242,9 @@
       <c r="F309" t="s" s="1">
         <v>587</v>
       </c>
-      <c r="G309" s="8"/>
+      <c r="G309" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s" s="2">
@@ -9841,7 +10265,9 @@
       <c r="F310" t="s" s="1">
         <v>128</v>
       </c>
-      <c r="G310" s="8"/>
+      <c r="G310" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s" s="2">
@@ -9862,7 +10288,9 @@
       <c r="F311" t="s" s="1">
         <v>140</v>
       </c>
-      <c r="G311" s="8"/>
+      <c r="G311" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s" s="2">
@@ -9883,7 +10311,9 @@
       <c r="F312" t="s" s="1">
         <v>131</v>
       </c>
-      <c r="G312" s="8"/>
+      <c r="G312" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s" s="2">
@@ -9904,7 +10334,9 @@
       <c r="F313" t="s" s="1">
         <v>132</v>
       </c>
-      <c r="G313" s="8"/>
+      <c r="G313" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s" s="2">
@@ -9946,7 +10378,9 @@
       <c r="F315" t="s" s="1">
         <v>134</v>
       </c>
-      <c r="G315" s="8"/>
+      <c r="G315" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s" s="2">
@@ -9967,7 +10401,9 @@
       <c r="F316" t="s" s="1">
         <v>127</v>
       </c>
-      <c r="G316" s="8"/>
+      <c r="G316" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s" s="2">
@@ -10009,7 +10445,9 @@
       <c r="F318" t="s" s="1">
         <v>807</v>
       </c>
-      <c r="G318" s="8"/>
+      <c r="G318" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s" s="2">
@@ -10030,7 +10468,9 @@
       <c r="F319" t="s" s="1">
         <v>593</v>
       </c>
-      <c r="G319" s="8"/>
+      <c r="G319" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s" s="2">
@@ -10051,7 +10491,9 @@
       <c r="F320" t="s" s="1">
         <v>122</v>
       </c>
-      <c r="G320" s="8"/>
+      <c r="G320" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s" s="2">
@@ -10072,7 +10514,9 @@
       <c r="F321" t="s" s="1">
         <v>154</v>
       </c>
-      <c r="G321" s="8"/>
+      <c r="G321" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s" s="2">
@@ -10093,7 +10537,9 @@
       <c r="F322" t="s" s="1">
         <v>802</v>
       </c>
-      <c r="G322" s="8"/>
+      <c r="G322" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s" s="2">
@@ -10114,7 +10560,9 @@
       <c r="F323" t="s" s="1">
         <v>803</v>
       </c>
-      <c r="G323" s="8"/>
+      <c r="G323" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s" s="2">
@@ -10135,7 +10583,9 @@
       <c r="F324" t="s" s="1">
         <v>129</v>
       </c>
-      <c r="G324" s="8"/>
+      <c r="G324" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s" s="2">
@@ -10156,7 +10606,9 @@
       <c r="F325" t="s" s="1">
         <v>137</v>
       </c>
-      <c r="G325" s="8"/>
+      <c r="G325" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s" s="2">
@@ -10177,7 +10629,9 @@
       <c r="F326" t="s" s="1">
         <v>812</v>
       </c>
-      <c r="G326" s="8"/>
+      <c r="G326" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s" s="2">
@@ -10198,7 +10652,9 @@
       <c r="F327" t="s" s="1">
         <v>123</v>
       </c>
-      <c r="G327" s="8"/>
+      <c r="G327" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s" s="2">
@@ -10219,7 +10675,9 @@
       <c r="F328" t="s" s="1">
         <v>130</v>
       </c>
-      <c r="G328" s="8"/>
+      <c r="G328" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s" s="2">
@@ -10240,7 +10698,9 @@
       <c r="F329" t="s" s="1">
         <v>156</v>
       </c>
-      <c r="G329" s="8"/>
+      <c r="G329" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s" s="2">
@@ -10261,7 +10721,9 @@
       <c r="F330" t="s" s="1">
         <v>136</v>
       </c>
-      <c r="G330" s="8"/>
+      <c r="G330" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s" s="2">
@@ -10303,7 +10765,9 @@
       <c r="F332" t="s" s="1">
         <v>125</v>
       </c>
-      <c r="G332" s="8"/>
+      <c r="G332" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s" s="2">
@@ -10324,7 +10788,9 @@
       <c r="F333" t="s" s="1">
         <v>139</v>
       </c>
-      <c r="G333" s="8"/>
+      <c r="G333" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s" s="2">
@@ -10345,7 +10811,9 @@
       <c r="F334" t="s" s="1">
         <v>788</v>
       </c>
-      <c r="G334" s="8"/>
+      <c r="G334" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s" s="2">
@@ -10366,7 +10834,9 @@
       <c r="F335" t="s" s="1">
         <v>808</v>
       </c>
-      <c r="G335" s="8"/>
+      <c r="G335" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s" s="2">
@@ -10387,7 +10857,9 @@
       <c r="F336" t="s" s="1">
         <v>294</v>
       </c>
-      <c r="G336" s="8"/>
+      <c r="G336" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s" s="2">
@@ -10408,7 +10880,9 @@
       <c r="F337" t="s" s="1">
         <v>281</v>
       </c>
-      <c r="G337" s="8"/>
+      <c r="G337" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s" s="2">
@@ -10429,7 +10903,9 @@
       <c r="F338" t="s" s="1">
         <v>801</v>
       </c>
-      <c r="G338" s="8"/>
+      <c r="G338" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s" s="2">
@@ -10471,7 +10947,9 @@
       <c r="F340" t="s" s="1">
         <v>111</v>
       </c>
-      <c r="G340" s="8"/>
+      <c r="G340" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s" s="2">
@@ -10492,7 +10970,9 @@
       <c r="F341" t="s" s="1">
         <v>119</v>
       </c>
-      <c r="G341" s="8"/>
+      <c r="G341" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s" s="2">
@@ -10513,7 +10993,9 @@
       <c r="F342" t="s" s="1">
         <v>104</v>
       </c>
-      <c r="G342" s="8"/>
+      <c r="G342" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s" s="2">
@@ -10534,7 +11016,9 @@
       <c r="F343" t="s" s="1">
         <v>113</v>
       </c>
-      <c r="G343" s="8"/>
+      <c r="G343" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s" s="2">
@@ -10555,7 +11039,9 @@
       <c r="F344" t="s" s="1">
         <v>230</v>
       </c>
-      <c r="G344" s="8"/>
+      <c r="G344" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" t="s" s="2">
@@ -10576,7 +11062,9 @@
       <c r="F345" t="s" s="1">
         <v>106</v>
       </c>
-      <c r="G345" s="8"/>
+      <c r="G345" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" t="s" s="2">
@@ -10597,7 +11085,9 @@
       <c r="F346" t="s" s="1">
         <v>109</v>
       </c>
-      <c r="G346" s="8"/>
+      <c r="G346" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" t="s" s="2">
@@ -10618,7 +11108,9 @@
       <c r="F347" t="s" s="1">
         <v>114</v>
       </c>
-      <c r="G347" s="8"/>
+      <c r="G347" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s" s="2">
@@ -10639,7 +11131,9 @@
       <c r="F348" t="s" s="1">
         <v>118</v>
       </c>
-      <c r="G348" s="8"/>
+      <c r="G348" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s" s="2">
@@ -10660,7 +11154,9 @@
       <c r="F349" t="s" s="1">
         <v>120</v>
       </c>
-      <c r="G349" s="8"/>
+      <c r="G349" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s" s="2">
@@ -10681,7 +11177,9 @@
       <c r="F350" t="s" s="1">
         <v>105</v>
       </c>
-      <c r="G350" s="8"/>
+      <c r="G350" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s" s="2">
@@ -10702,7 +11200,9 @@
       <c r="F351" t="s" s="1">
         <v>110</v>
       </c>
-      <c r="G351" s="8"/>
+      <c r="G351" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" t="s" s="2">
@@ -10723,7 +11223,9 @@
       <c r="F352" t="s" s="1">
         <v>85</v>
       </c>
-      <c r="G352" s="8"/>
+      <c r="G352" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s" s="2">
@@ -10786,7 +11288,9 @@
       <c r="F355" t="s" s="1">
         <v>116</v>
       </c>
-      <c r="G355" s="8"/>
+      <c r="G355" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s" s="2">
@@ -10807,7 +11311,9 @@
       <c r="F356" t="s" s="1">
         <v>108</v>
       </c>
-      <c r="G356" s="8"/>
+      <c r="G356" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s" s="2">
@@ -10828,7 +11334,9 @@
       <c r="F357" t="s" s="1">
         <v>107</v>
       </c>
-      <c r="G357" s="8"/>
+      <c r="G357" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s" s="2">
@@ -10849,7 +11357,9 @@
       <c r="F358" t="s" s="1">
         <v>232</v>
       </c>
-      <c r="G358" s="8"/>
+      <c r="G358" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s" s="2">
@@ -10870,7 +11380,9 @@
       <c r="F359" t="s" s="1">
         <v>279</v>
       </c>
-      <c r="G359" s="8"/>
+      <c r="G359" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s" s="2">
@@ -10912,7 +11424,9 @@
       <c r="F361" t="s" s="1">
         <v>523</v>
       </c>
-      <c r="G361" s="8"/>
+      <c r="G361" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s" s="2">
@@ -10933,7 +11447,9 @@
       <c r="F362" t="s" s="1">
         <v>512</v>
       </c>
-      <c r="G362" s="8"/>
+      <c r="G362" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s" s="2">
@@ -10954,7 +11470,9 @@
       <c r="F363" t="s" s="1">
         <v>524</v>
       </c>
-      <c r="G363" s="8"/>
+      <c r="G363" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s" s="2">
@@ -10975,7 +11493,9 @@
       <c r="F364" t="s" s="1">
         <v>175</v>
       </c>
-      <c r="G364" s="8"/>
+      <c r="G364" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s" s="2">
@@ -10996,7 +11516,9 @@
       <c r="F365" t="s" s="1">
         <v>526</v>
       </c>
-      <c r="G365" s="8"/>
+      <c r="G365" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s" s="2">
@@ -11017,7 +11539,9 @@
       <c r="F366" t="s" s="1">
         <v>513</v>
       </c>
-      <c r="G366" s="8"/>
+      <c r="G366" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s" s="2">
@@ -11038,7 +11562,9 @@
       <c r="F367" t="s" s="1">
         <v>521</v>
       </c>
-      <c r="G367" s="8"/>
+      <c r="G367" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s" s="2">
@@ -11059,7 +11585,9 @@
       <c r="F368" t="s" s="1">
         <v>518</v>
       </c>
-      <c r="G368" s="8"/>
+      <c r="G368" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s" s="2">
@@ -11080,7 +11608,9 @@
       <c r="F369" t="s" s="1">
         <v>527</v>
       </c>
-      <c r="G369" s="8"/>
+      <c r="G369" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s" s="2">
@@ -11101,7 +11631,9 @@
       <c r="F370" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G370" s="8"/>
+      <c r="G370" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s" s="2">
@@ -11122,7 +11654,9 @@
       <c r="F371" t="s" s="1">
         <v>519</v>
       </c>
-      <c r="G371" s="8"/>
+      <c r="G371" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s" s="2">
@@ -11143,7 +11677,9 @@
       <c r="F372" t="s" s="1">
         <v>528</v>
       </c>
-      <c r="G372" s="8"/>
+      <c r="G372" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s" s="2">
@@ -11185,7 +11721,9 @@
       <c r="F374" t="s" s="1">
         <v>517</v>
       </c>
-      <c r="G374" s="8"/>
+      <c r="G374" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s" s="2">
@@ -11206,7 +11744,9 @@
       <c r="F375" t="s" s="1">
         <v>525</v>
       </c>
-      <c r="G375" s="8"/>
+      <c r="G375" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s" s="2">
@@ -11227,7 +11767,9 @@
       <c r="F376" t="s" s="1">
         <v>94</v>
       </c>
-      <c r="G376" s="8"/>
+      <c r="G376" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" t="s" s="2">
@@ -11248,7 +11790,9 @@
       <c r="F377" t="s" s="1">
         <v>785</v>
       </c>
-      <c r="G377" s="8"/>
+      <c r="G377" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" t="s" s="2">
@@ -11269,7 +11813,9 @@
       <c r="F378" t="s" s="1">
         <v>89</v>
       </c>
-      <c r="G378" s="8"/>
+      <c r="G378" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s" s="2">
@@ -11290,7 +11836,9 @@
       <c r="F379" t="s" s="1">
         <v>86</v>
       </c>
-      <c r="G379" s="8"/>
+      <c r="G379" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" t="s" s="2">
@@ -11311,7 +11859,9 @@
       <c r="F380" t="s" s="1">
         <v>95</v>
       </c>
-      <c r="G380" s="8"/>
+      <c r="G380" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s" s="2">
@@ -11332,7 +11882,9 @@
       <c r="F381" t="s" s="1">
         <v>88</v>
       </c>
-      <c r="G381" s="8"/>
+      <c r="G381" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s" s="2">
@@ -11395,7 +11947,9 @@
       <c r="F384" t="s" s="1">
         <v>90</v>
       </c>
-      <c r="G384" s="8"/>
+      <c r="G384" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s" s="2">
@@ -11416,7 +11970,9 @@
       <c r="F385" t="s" s="1">
         <v>81</v>
       </c>
-      <c r="G385" s="8"/>
+      <c r="G385" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s" s="2">
@@ -11437,7 +11993,9 @@
       <c r="F386" t="s" s="1">
         <v>82</v>
       </c>
-      <c r="G386" s="8"/>
+      <c r="G386" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s" s="2">
@@ -11458,7 +12016,9 @@
       <c r="F387" t="s" s="1">
         <v>93</v>
       </c>
-      <c r="G387" s="8"/>
+      <c r="G387" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s" s="2">
@@ -11479,7 +12039,9 @@
       <c r="F388" t="s" s="1">
         <v>497</v>
       </c>
-      <c r="G388" s="8"/>
+      <c r="G388" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s" s="2">
@@ -11521,7 +12083,9 @@
       <c r="F390" t="s" s="1">
         <v>591</v>
       </c>
-      <c r="G390" s="8"/>
+      <c r="G390" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s" s="2">
@@ -11542,7 +12106,9 @@
       <c r="F391" t="s" s="1">
         <v>595</v>
       </c>
-      <c r="G391" s="8"/>
+      <c r="G391" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s" s="2">
@@ -11563,7 +12129,9 @@
       <c r="F392" t="s" s="1">
         <v>594</v>
       </c>
-      <c r="G392" s="8"/>
+      <c r="G392" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s" s="2">
@@ -11584,7 +12152,9 @@
       <c r="F393" t="s" s="1">
         <v>499</v>
       </c>
-      <c r="G393" s="8"/>
+      <c r="G393" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s" s="2">
@@ -11647,7 +12217,9 @@
       <c r="F396" t="s" s="1">
         <v>600</v>
       </c>
-      <c r="G396" s="8"/>
+      <c r="G396" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s" s="2">
@@ -11689,7 +12261,9 @@
       <c r="F398" t="s" s="1">
         <v>599</v>
       </c>
-      <c r="G398" s="8"/>
+      <c r="G398" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s" s="2">
@@ -11710,7 +12284,9 @@
       <c r="F399" t="s" s="1">
         <v>598</v>
       </c>
-      <c r="G399" s="8"/>
+      <c r="G399" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s" s="2">
@@ -11731,7 +12307,9 @@
       <c r="F400" t="s" s="1">
         <v>592</v>
       </c>
-      <c r="G400" s="8"/>
+      <c r="G400" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s" s="2">
@@ -11773,7 +12351,9 @@
       <c r="F402" t="s" s="1">
         <v>590</v>
       </c>
-      <c r="G402" s="8"/>
+      <c r="G402" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s" s="2">
@@ -11794,7 +12374,9 @@
       <c r="F403" t="s" s="1">
         <v>613</v>
       </c>
-      <c r="G403" s="8"/>
+      <c r="G403" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s" s="2">
@@ -11815,7 +12397,9 @@
       <c r="F404" t="s" s="1">
         <v>589</v>
       </c>
-      <c r="G404" s="8"/>
+      <c r="G404" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s" s="2">
@@ -11836,7 +12420,9 @@
       <c r="F405" t="s" s="1">
         <v>615</v>
       </c>
-      <c r="G405" s="8"/>
+      <c r="G405" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s" s="2">
@@ -11857,7 +12443,9 @@
       <c r="F406" t="s" s="1">
         <v>614</v>
       </c>
-      <c r="G406" s="8"/>
+      <c r="G406" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s" s="2">
@@ -11878,7 +12466,9 @@
       <c r="F407" t="s" s="1">
         <v>607</v>
       </c>
-      <c r="G407" s="8"/>
+      <c r="G407" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s" s="2">
@@ -11899,7 +12489,9 @@
       <c r="F408" t="s" s="1">
         <v>609</v>
       </c>
-      <c r="G408" s="8"/>
+      <c r="G408" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s" s="2">
@@ -11920,7 +12512,9 @@
       <c r="F409" t="s" s="1">
         <v>617</v>
       </c>
-      <c r="G409" s="8"/>
+      <c r="G409" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s" s="2">
@@ -11941,7 +12535,9 @@
       <c r="F410" t="s" s="1">
         <v>616</v>
       </c>
-      <c r="G410" s="8"/>
+      <c r="G410" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s" s="2">
@@ -11983,7 +12579,9 @@
       <c r="F412" t="s" s="1">
         <v>611</v>
       </c>
-      <c r="G412" s="8"/>
+      <c r="G412" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s" s="2">
@@ -12004,7 +12602,9 @@
       <c r="F413" t="s" s="1">
         <v>612</v>
       </c>
-      <c r="G413" s="8"/>
+      <c r="G413" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s" s="2">
@@ -12025,7 +12625,9 @@
       <c r="F414" t="s" s="1">
         <v>572</v>
       </c>
-      <c r="G414" s="8"/>
+      <c r="G414" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s" s="2">
@@ -12046,7 +12648,9 @@
       <c r="F415" t="s" s="1">
         <v>718</v>
       </c>
-      <c r="G415" s="8"/>
+      <c r="G415" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s" s="2">
@@ -12067,7 +12671,9 @@
       <c r="F416" t="s" s="1">
         <v>719</v>
       </c>
-      <c r="G416" s="8"/>
+      <c r="G416" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s" s="2">
@@ -12088,7 +12694,9 @@
       <c r="F417" t="s" s="1">
         <v>712</v>
       </c>
-      <c r="G417" s="8"/>
+      <c r="G417" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s" s="2">
@@ -12109,7 +12717,9 @@
       <c r="F418" t="s" s="1">
         <v>713</v>
       </c>
-      <c r="G418" s="8"/>
+      <c r="G418" s="8">
+        <v>12</v>
+      </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s" s="2">
@@ -12130,7 +12740,9 @@
       <c r="F419" t="s" s="1">
         <v>714</v>
       </c>
-      <c r="G419" s="8"/>
+      <c r="G419" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" t="s" s="2">
@@ -12151,7 +12763,9 @@
       <c r="F420" t="s" s="1">
         <v>452</v>
       </c>
-      <c r="G420" s="8"/>
+      <c r="G420" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" t="s" s="2">
@@ -12172,7 +12786,9 @@
       <c r="F421" t="s" s="1">
         <v>453</v>
       </c>
-      <c r="G421" s="8"/>
+      <c r="G421" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s" s="2">
@@ -12193,7 +12809,9 @@
       <c r="F422" t="s" s="1">
         <v>450</v>
       </c>
-      <c r="G422" s="8"/>
+      <c r="G422" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" t="s" s="2">
@@ -12214,7 +12832,9 @@
       <c r="F423" t="s" s="1">
         <v>367</v>
       </c>
-      <c r="G423" s="8"/>
+      <c r="G423" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" t="s" s="2">
@@ -12235,7 +12855,9 @@
       <c r="F424" t="s" s="1">
         <v>702</v>
       </c>
-      <c r="G424" s="8"/>
+      <c r="G424" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" t="s" s="2">
@@ -12256,7 +12878,9 @@
       <c r="F425" t="s" s="1">
         <v>451</v>
       </c>
-      <c r="G425" s="8"/>
+      <c r="G425" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" t="s" s="2">
@@ -12277,7 +12901,9 @@
       <c r="F426" t="s" s="1">
         <v>446</v>
       </c>
-      <c r="G426" s="8"/>
+      <c r="G426" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" t="s" s="2">
@@ -12298,7 +12924,9 @@
       <c r="F427" t="s" s="1">
         <v>717</v>
       </c>
-      <c r="G427" s="8"/>
+      <c r="G427" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" t="s" s="2">
@@ -12319,7 +12947,9 @@
       <c r="F428" t="s" s="1">
         <v>318</v>
       </c>
-      <c r="G428" s="8"/>
+      <c r="G428" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" t="s" s="2">
@@ -12340,7 +12970,9 @@
       <c r="F429" t="s" s="1">
         <v>261</v>
       </c>
-      <c r="G429" s="8"/>
+      <c r="G429" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" t="s" s="2">
@@ -12361,7 +12993,9 @@
       <c r="F430" t="s" s="1">
         <v>322</v>
       </c>
-      <c r="G430" s="8"/>
+      <c r="G430" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" t="s" s="2">
@@ -12382,7 +13016,9 @@
       <c r="F431" t="s" s="1">
         <v>768</v>
       </c>
-      <c r="G431" s="8"/>
+      <c r="G431" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" t="s" s="2">
@@ -12403,7 +13039,9 @@
       <c r="F432" t="s" s="1">
         <v>763</v>
       </c>
-      <c r="G432" s="8"/>
+      <c r="G432" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s" s="2">
@@ -12424,7 +13062,9 @@
       <c r="F433" t="s" s="1">
         <v>317</v>
       </c>
-      <c r="G433" s="8"/>
+      <c r="G433" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s" s="2">
@@ -12445,7 +13085,9 @@
       <c r="F434" t="s" s="1">
         <v>321</v>
       </c>
-      <c r="G434" s="8"/>
+      <c r="G434" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s" s="2">
@@ -12466,7 +13108,9 @@
       <c r="F435" t="s" s="1">
         <v>269</v>
       </c>
-      <c r="G435" s="8"/>
+      <c r="G435" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s" s="2">
@@ -12487,7 +13131,9 @@
       <c r="F436" t="s" s="1">
         <v>328</v>
       </c>
-      <c r="G436" s="8"/>
+      <c r="G436" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s" s="2">
@@ -12508,7 +13154,9 @@
       <c r="F437" t="s" s="1">
         <v>324</v>
       </c>
-      <c r="G437" s="8"/>
+      <c r="G437" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s" s="2">
@@ -12529,7 +13177,9 @@
       <c r="F438" t="s" s="1">
         <v>316</v>
       </c>
-      <c r="G438" s="8"/>
+      <c r="G438" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s" s="2">
@@ -12550,7 +13200,9 @@
       <c r="F439" t="s" s="1">
         <v>716</v>
       </c>
-      <c r="G439" s="8"/>
+      <c r="G439" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s" s="2">
@@ -12571,7 +13223,9 @@
       <c r="F440" t="s" s="1">
         <v>323</v>
       </c>
-      <c r="G440" s="8"/>
+      <c r="G440" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s" s="2">
@@ -12592,7 +13246,9 @@
       <c r="F441" t="s" s="1">
         <v>760</v>
       </c>
-      <c r="G441" s="8"/>
+      <c r="G441" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s" s="2">
@@ -12613,7 +13269,9 @@
       <c r="F442" t="s" s="1">
         <v>761</v>
       </c>
-      <c r="G442" s="8"/>
+      <c r="G442" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s" s="2">
@@ -12634,7 +13292,9 @@
       <c r="F443" t="s" s="1">
         <v>762</v>
       </c>
-      <c r="G443" s="8"/>
+      <c r="G443" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s" s="2">
@@ -12655,7 +13315,9 @@
       <c r="F444" t="s" s="1">
         <v>809</v>
       </c>
-      <c r="G444" s="8"/>
+      <c r="G444" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s" s="2">
@@ -12676,7 +13338,9 @@
       <c r="F445" t="s" s="1">
         <v>141</v>
       </c>
-      <c r="G445" s="8"/>
+      <c r="G445" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s" s="2">
@@ -12697,7 +13361,9 @@
       <c r="F446" t="s" s="1">
         <v>674</v>
       </c>
-      <c r="G446" s="8"/>
+      <c r="G446" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s" s="2">
@@ -12760,7 +13426,9 @@
       <c r="F449" t="s" s="1">
         <v>789</v>
       </c>
-      <c r="G449" s="8"/>
+      <c r="G449" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s" s="2">
@@ -12781,7 +13449,9 @@
       <c r="F450" t="s" s="1">
         <v>810</v>
       </c>
-      <c r="G450" s="8"/>
+      <c r="G450" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s" s="2">
@@ -12802,7 +13472,9 @@
       <c r="F451" t="s" s="1">
         <v>76</v>
       </c>
-      <c r="G451" s="8"/>
+      <c r="G451" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s" s="2">
@@ -12823,7 +13495,9 @@
       <c r="F452" t="s" s="1">
         <v>781</v>
       </c>
-      <c r="G452" s="8"/>
+      <c r="G452" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s" s="2">
@@ -12865,7 +13539,9 @@
       <c r="F454" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="G454" s="8"/>
+      <c r="G454" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s" s="2">
@@ -12886,7 +13562,9 @@
       <c r="F455" t="s" s="1">
         <v>77</v>
       </c>
-      <c r="G455" s="8"/>
+      <c r="G455" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s" s="2">
@@ -12907,7 +13585,9 @@
       <c r="F456" t="s" s="1">
         <v>790</v>
       </c>
-      <c r="G456" s="8"/>
+      <c r="G456" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s" s="2">
@@ -12928,7 +13608,9 @@
       <c r="F457" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="G457" s="8"/>
+      <c r="G457" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s" s="2">
@@ -13012,7 +13694,9 @@
       <c r="F461" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="G461" s="8"/>
+      <c r="G461" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s" s="2">
@@ -13033,7 +13717,9 @@
       <c r="F462" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="G462" s="8"/>
+      <c r="G462" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s" s="2">
@@ -13054,7 +13740,9 @@
       <c r="F463" t="s" s="1">
         <v>306</v>
       </c>
-      <c r="G463" s="8"/>
+      <c r="G463" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s" s="2">
@@ -13075,7 +13763,9 @@
       <c r="F464" t="s" s="1">
         <v>676</v>
       </c>
-      <c r="G464" s="8"/>
+      <c r="G464" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s" s="2">
@@ -13096,7 +13786,9 @@
       <c r="F465" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="G465" s="8"/>
+      <c r="G465" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s" s="2">
@@ -13117,7 +13809,9 @@
       <c r="F466" t="s" s="1">
         <v>780</v>
       </c>
-      <c r="G466" s="8"/>
+      <c r="G466" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s" s="2">
@@ -13138,7 +13832,9 @@
       <c r="F467" t="s" s="1">
         <v>673</v>
       </c>
-      <c r="G467" s="8"/>
+      <c r="G467" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s" s="2">
@@ -13201,7 +13897,9 @@
       <c r="F470" t="s" s="1">
         <v>680</v>
       </c>
-      <c r="G470" s="8"/>
+      <c r="G470" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s" s="2">
@@ -13222,7 +13920,9 @@
       <c r="F471" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="G471" s="8"/>
+      <c r="G471" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s" s="2">
@@ -13243,7 +13943,9 @@
       <c r="F472" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="G472" s="8"/>
+      <c r="G472" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s" s="2">
@@ -13264,7 +13966,9 @@
       <c r="F473" t="s" s="1">
         <v>579</v>
       </c>
-      <c r="G473" s="8"/>
+      <c r="G473" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s" s="2">
@@ -13285,7 +13989,9 @@
       <c r="F474" t="s" s="1">
         <v>548</v>
       </c>
-      <c r="G474" s="8"/>
+      <c r="G474" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s" s="2">
@@ -13306,7 +14012,9 @@
       <c r="F475" t="s" s="1">
         <v>580</v>
       </c>
-      <c r="G475" s="8"/>
+      <c r="G475" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s" s="2">
@@ -13327,7 +14035,9 @@
       <c r="F476" t="s" s="1">
         <v>549</v>
       </c>
-      <c r="G476" s="8"/>
+      <c r="G476" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s" s="2">
@@ -13348,7 +14058,9 @@
       <c r="F477" t="s" s="1">
         <v>582</v>
       </c>
-      <c r="G477" s="8"/>
+      <c r="G477" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s" s="2">
@@ -13390,7 +14102,9 @@
       <c r="F479" t="s" s="1">
         <v>584</v>
       </c>
-      <c r="G479" s="8"/>
+      <c r="G479" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s" s="2">
@@ -13453,7 +14167,9 @@
       <c r="F482" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="G482" s="8"/>
+      <c r="G482" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s" s="2">
@@ -13474,7 +14190,9 @@
       <c r="F483" t="s" s="1">
         <v>540</v>
       </c>
-      <c r="G483" s="8"/>
+      <c r="G483" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s" s="2">
@@ -13495,7 +14213,9 @@
       <c r="F484" t="s" s="1">
         <v>538</v>
       </c>
-      <c r="G484" s="8"/>
+      <c r="G484" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s" s="2">
@@ -13516,7 +14236,9 @@
       <c r="F485" t="s" s="1">
         <v>539</v>
       </c>
-      <c r="G485" s="8"/>
+      <c r="G485" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s" s="2">
@@ -13537,7 +14259,9 @@
       <c r="F486" t="s" s="1">
         <v>541</v>
       </c>
-      <c r="G486" s="8"/>
+      <c r="G486" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s" s="2">
@@ -13558,7 +14282,9 @@
       <c r="F487" t="s" s="1">
         <v>534</v>
       </c>
-      <c r="G487" s="8"/>
+      <c r="G487" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s" s="2">
@@ -13579,7 +14305,9 @@
       <c r="F488" t="s" s="1">
         <v>715</v>
       </c>
-      <c r="G488" s="8"/>
+      <c r="G488" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s" s="2">
@@ -13600,7 +14328,9 @@
       <c r="F489" t="s" s="1">
         <v>428</v>
       </c>
-      <c r="G489" s="8"/>
+      <c r="G489" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s" s="2">
@@ -13621,7 +14351,9 @@
       <c r="F490" t="s" s="1">
         <v>419</v>
       </c>
-      <c r="G490" s="8"/>
+      <c r="G490" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s" s="2">
@@ -13642,7 +14374,9 @@
       <c r="F491" t="s" s="1">
         <v>273</v>
       </c>
-      <c r="G491" s="8"/>
+      <c r="G491" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" t="s" s="2">
@@ -13663,7 +14397,9 @@
       <c r="F492" t="s" s="1">
         <v>707</v>
       </c>
-      <c r="G492" s="8"/>
+      <c r="G492" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s" s="2">
@@ -13705,7 +14441,9 @@
       <c r="F494" t="s" s="1">
         <v>569</v>
       </c>
-      <c r="G494" s="8"/>
+      <c r="G494" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" t="s" s="2">
@@ -13726,7 +14464,9 @@
       <c r="F495" t="s" s="1">
         <v>678</v>
       </c>
-      <c r="G495" s="8"/>
+      <c r="G495" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" t="s" s="2">
@@ -13747,7 +14487,9 @@
       <c r="F496" t="s" s="1">
         <v>570</v>
       </c>
-      <c r="G496" s="8"/>
+      <c r="G496" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" t="s" s="2">
@@ -13768,7 +14510,9 @@
       <c r="F497" t="s" s="1">
         <v>679</v>
       </c>
-      <c r="G497" s="8"/>
+      <c r="G497" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" t="s" s="2">
@@ -13789,7 +14533,9 @@
       <c r="F498" t="s" s="1">
         <v>709</v>
       </c>
-      <c r="G498" s="8"/>
+      <c r="G498" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" t="s" s="2">
@@ -13810,7 +14556,9 @@
       <c r="F499" t="s" s="1">
         <v>577</v>
       </c>
-      <c r="G499" s="8"/>
+      <c r="G499" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" t="s" s="2">
@@ -13831,7 +14579,9 @@
       <c r="F500" t="s" s="1">
         <v>708</v>
       </c>
-      <c r="G500" s="8"/>
+      <c r="G500" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" t="s" s="2">
@@ -13852,7 +14602,9 @@
       <c r="F501" t="s" s="1">
         <v>710</v>
       </c>
-      <c r="G501" s="8"/>
+      <c r="G501" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" t="s" s="2">
@@ -13873,7 +14625,9 @@
       <c r="F502" t="s" s="1">
         <v>703</v>
       </c>
-      <c r="G502" s="8"/>
+      <c r="G502" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" t="s" s="2">
@@ -13894,7 +14648,9 @@
       <c r="F503" t="s" s="1">
         <v>274</v>
       </c>
-      <c r="G503" s="8"/>
+      <c r="G503" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" t="s" s="2">
@@ -13915,7 +14671,9 @@
       <c r="F504" t="s" s="1">
         <v>264</v>
       </c>
-      <c r="G504" s="8"/>
+      <c r="G504" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" t="s" s="2">
@@ -13936,7 +14694,9 @@
       <c r="F505" t="s" s="1">
         <v>254</v>
       </c>
-      <c r="G505" s="8"/>
+      <c r="G505" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" t="s" s="2">
@@ -13957,7 +14717,9 @@
       <c r="F506" t="s" s="1">
         <v>92</v>
       </c>
-      <c r="G506" s="8"/>
+      <c r="G506" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" t="s" s="2">
@@ -13978,7 +14740,9 @@
       <c r="F507" t="s" s="1">
         <v>240</v>
       </c>
-      <c r="G507" s="8"/>
+      <c r="G507" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" t="s" s="2">
@@ -13999,7 +14763,9 @@
       <c r="F508" t="s" s="1">
         <v>238</v>
       </c>
-      <c r="G508" s="8"/>
+      <c r="G508" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" t="s" s="2">
@@ -14041,7 +14807,9 @@
       <c r="F510" t="s" s="1">
         <v>239</v>
       </c>
-      <c r="G510" s="8"/>
+      <c r="G510" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" t="s" s="2">
@@ -14062,7 +14830,9 @@
       <c r="F511" t="s" s="1">
         <v>143</v>
       </c>
-      <c r="G511" s="8"/>
+      <c r="G511" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" t="s" s="2">
@@ -14083,7 +14853,9 @@
       <c r="F512" t="s" s="1">
         <v>705</v>
       </c>
-      <c r="G512" s="8"/>
+      <c r="G512" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" t="s" s="2">
@@ -14104,7 +14876,9 @@
       <c r="F513" t="s" s="1">
         <v>706</v>
       </c>
-      <c r="G513" s="8"/>
+      <c r="G513" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" t="s" s="2">
@@ -14125,7 +14899,9 @@
       <c r="F514" t="s" s="1">
         <v>737</v>
       </c>
-      <c r="G514" s="8"/>
+      <c r="G514" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" t="s" s="2">
@@ -14146,7 +14922,9 @@
       <c r="F515" t="s" s="1">
         <v>732</v>
       </c>
-      <c r="G515" s="8"/>
+      <c r="G515" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" t="s" s="2">
@@ -14167,7 +14945,9 @@
       <c r="F516" t="s" s="1">
         <v>731</v>
       </c>
-      <c r="G516" s="8"/>
+      <c r="G516" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" t="s" s="2">
@@ -14188,7 +14968,9 @@
       <c r="F517" t="s" s="1">
         <v>734</v>
       </c>
-      <c r="G517" s="8"/>
+      <c r="G517" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" t="s" s="2">
@@ -14209,7 +14991,9 @@
       <c r="F518" t="s" s="1">
         <v>733</v>
       </c>
-      <c r="G518" s="8"/>
+      <c r="G518" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" t="s" s="2">
@@ -14230,7 +15014,9 @@
       <c r="F519" t="s" s="1">
         <v>735</v>
       </c>
-      <c r="G519" s="8"/>
+      <c r="G519" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" t="s" s="2">
@@ -14251,7 +15037,9 @@
       <c r="F520" t="s" s="1">
         <v>567</v>
       </c>
-      <c r="G520" s="8"/>
+      <c r="G520" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" t="s" s="2">
@@ -14272,7 +15060,9 @@
       <c r="F521" t="s" s="1">
         <v>145</v>
       </c>
-      <c r="G521" s="8"/>
+      <c r="G521" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" t="s" s="2">
@@ -14293,7 +15083,9 @@
       <c r="F522" t="s" s="1">
         <v>146</v>
       </c>
-      <c r="G522" s="8"/>
+      <c r="G522" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" t="s" s="2">
@@ -14335,7 +15127,9 @@
       <c r="F524" t="s" s="1">
         <v>151</v>
       </c>
-      <c r="G524" s="8"/>
+      <c r="G524" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" t="s" s="2">
@@ -14356,7 +15150,9 @@
       <c r="F525" t="s" s="1">
         <v>152</v>
       </c>
-      <c r="G525" s="8"/>
+      <c r="G525" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" t="s" s="2">
@@ -14377,7 +15173,9 @@
       <c r="F526" t="s" s="1">
         <v>153</v>
       </c>
-      <c r="G526" s="8"/>
+      <c r="G526" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" t="s" s="2">
@@ -14398,7 +15196,9 @@
       <c r="F527" t="s" s="1">
         <v>677</v>
       </c>
-      <c r="G527" s="8"/>
+      <c r="G527" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" t="s" s="2">
@@ -14419,7 +15219,9 @@
       <c r="F528" t="s" s="1">
         <v>158</v>
       </c>
-      <c r="G528" s="8"/>
+      <c r="G528" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" t="s" s="2">
@@ -14440,7 +15242,9 @@
       <c r="F529" t="s" s="1">
         <v>159</v>
       </c>
-      <c r="G529" s="8"/>
+      <c r="G529" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" t="s" s="2">
@@ -14461,7 +15265,9 @@
       <c r="F530" t="s" s="1">
         <v>723</v>
       </c>
-      <c r="G530" s="8"/>
+      <c r="G530" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" t="s" s="2">
@@ -14482,7 +15288,9 @@
       <c r="F531" t="s" s="1">
         <v>725</v>
       </c>
-      <c r="G531" s="8"/>
+      <c r="G531" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" t="s" s="2">
@@ -14503,7 +15311,9 @@
       <c r="F532" t="s" s="1">
         <v>724</v>
       </c>
-      <c r="G532" s="8"/>
+      <c r="G532" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" t="s" s="2">
@@ -14524,7 +15334,9 @@
       <c r="F533" t="s" s="1">
         <v>729</v>
       </c>
-      <c r="G533" s="8"/>
+      <c r="G533" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" t="s" s="2">
@@ -14545,7 +15357,9 @@
       <c r="F534" t="s" s="1">
         <v>727</v>
       </c>
-      <c r="G534" s="8"/>
+      <c r="G534" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" t="s" s="2">
@@ -14566,7 +15380,9 @@
       <c r="F535" t="s" s="1">
         <v>726</v>
       </c>
-      <c r="G535" s="8"/>
+      <c r="G535" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" t="s" s="2">
@@ -14587,7 +15403,9 @@
       <c r="F536" t="s" s="1">
         <v>257</v>
       </c>
-      <c r="G536" s="8"/>
+      <c r="G536" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" t="s" s="2">
@@ -14608,7 +15426,9 @@
       <c r="F537" t="s" s="1">
         <v>285</v>
       </c>
-      <c r="G537" s="8"/>
+      <c r="G537" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" t="s" s="2">
@@ -14629,7 +15449,9 @@
       <c r="F538" t="s" s="1">
         <v>256</v>
       </c>
-      <c r="G538" s="8"/>
+      <c r="G538" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" t="s" s="2">
@@ -14650,7 +15472,9 @@
       <c r="F539" t="s" s="1">
         <v>721</v>
       </c>
-      <c r="G539" s="8"/>
+      <c r="G539" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" t="s" s="2">
@@ -14671,7 +15495,9 @@
       <c r="F540" t="s" s="1">
         <v>728</v>
       </c>
-      <c r="G540" s="8"/>
+      <c r="G540" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" t="s" s="2">
@@ -14692,7 +15518,9 @@
       <c r="F541" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="G541" s="8"/>
+      <c r="G541" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" t="s" s="2">
@@ -14713,7 +15541,9 @@
       <c r="F542" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="G542" s="8"/>
+      <c r="G542" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" t="s" s="2">
@@ -14734,7 +15564,9 @@
       <c r="F543" t="s" s="1">
         <v>437</v>
       </c>
-      <c r="G543" s="8"/>
+      <c r="G543" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" t="s" s="2">
@@ -14755,7 +15587,9 @@
       <c r="F544" t="s" s="1">
         <v>393</v>
       </c>
-      <c r="G544" s="8"/>
+      <c r="G544" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" t="s" s="2">
@@ -14797,7 +15631,9 @@
       <c r="F546" t="s" s="1">
         <v>244</v>
       </c>
-      <c r="G546" s="8"/>
+      <c r="G546" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" t="s" s="2">
@@ -14818,7 +15654,9 @@
       <c r="F547" t="s" s="1">
         <v>173</v>
       </c>
-      <c r="G547" s="8"/>
+      <c r="G547" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" t="s" s="2">
@@ -14839,7 +15677,9 @@
       <c r="F548" t="s" s="1">
         <v>235</v>
       </c>
-      <c r="G548" s="8"/>
+      <c r="G548" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" t="s" s="2">
@@ -14860,7 +15700,9 @@
       <c r="F549" t="s" s="1">
         <v>204</v>
       </c>
-      <c r="G549" s="8"/>
+      <c r="G549" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" t="s" s="2">
@@ -14881,7 +15723,9 @@
       <c r="F550" t="s" s="1">
         <v>297</v>
       </c>
-      <c r="G550" s="8"/>
+      <c r="G550" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" t="s" s="2">
@@ -14902,7 +15746,9 @@
       <c r="F551" t="s" s="1">
         <v>246</v>
       </c>
-      <c r="G551" s="8"/>
+      <c r="G551" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" t="s" s="2">
@@ -14923,7 +15769,9 @@
       <c r="F552" t="s" s="1">
         <v>247</v>
       </c>
-      <c r="G552" s="8"/>
+      <c r="G552" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" t="s" s="2">
@@ -14944,7 +15792,9 @@
       <c r="F553" t="s" s="1">
         <v>290</v>
       </c>
-      <c r="G553" s="8"/>
+      <c r="G553" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" t="s" s="2">
@@ -14965,7 +15815,9 @@
       <c r="F554" t="s" s="1">
         <v>216</v>
       </c>
-      <c r="G554" s="8"/>
+      <c r="G554" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" t="s" s="2">
@@ -14986,7 +15838,9 @@
       <c r="F555" t="s" s="1">
         <v>215</v>
       </c>
-      <c r="G555" s="8"/>
+      <c r="G555" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" t="s" s="2">
@@ -15007,7 +15861,9 @@
       <c r="F556" t="s" s="1">
         <v>233</v>
       </c>
-      <c r="G556" s="8"/>
+      <c r="G556" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" t="s" s="2">
@@ -15028,7 +15884,9 @@
       <c r="F557" t="s" s="1">
         <v>205</v>
       </c>
-      <c r="G557" s="8"/>
+      <c r="G557" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" t="s" s="2">
@@ -15049,7 +15907,9 @@
       <c r="F558" t="s" s="1">
         <v>296</v>
       </c>
-      <c r="G558" s="8"/>
+      <c r="G558" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" t="s" s="2">
@@ -15070,7 +15930,9 @@
       <c r="F559" t="s" s="1">
         <v>187</v>
       </c>
-      <c r="G559" s="8"/>
+      <c r="G559" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" t="s" s="2">
@@ -15091,7 +15953,9 @@
       <c r="F560" t="s" s="1">
         <v>241</v>
       </c>
-      <c r="G560" s="8"/>
+      <c r="G560" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" t="s" s="2">
@@ -15112,7 +15976,9 @@
       <c r="F561" t="s" s="1">
         <v>295</v>
       </c>
-      <c r="G561" s="8"/>
+      <c r="G561" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" t="s" s="2">
@@ -15133,7 +15999,9 @@
       <c r="F562" t="s" s="1">
         <v>177</v>
       </c>
-      <c r="G562" s="8"/>
+      <c r="G562" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" t="s" s="2">
@@ -15154,7 +16022,9 @@
       <c r="F563" t="s" s="1">
         <v>217</v>
       </c>
-      <c r="G563" s="8"/>
+      <c r="G563" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" t="s" s="2">
@@ -15175,7 +16045,9 @@
       <c r="F564" t="s" s="1">
         <v>191</v>
       </c>
-      <c r="G564" s="8"/>
+      <c r="G564" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" t="s" s="2">
@@ -15196,7 +16068,9 @@
       <c r="F565" t="s" s="1">
         <v>248</v>
       </c>
-      <c r="G565" s="8"/>
+      <c r="G565" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" t="s" s="2">
@@ -15217,7 +16091,9 @@
       <c r="F566" t="s" s="1">
         <v>213</v>
       </c>
-      <c r="G566" s="8"/>
+      <c r="G566" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" t="s" s="2">
@@ -15238,7 +16114,9 @@
       <c r="F567" t="s" s="1">
         <v>192</v>
       </c>
-      <c r="G567" s="8"/>
+      <c r="G567" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" t="s" s="2">
@@ -15259,7 +16137,9 @@
       <c r="F568" t="s" s="1">
         <v>242</v>
       </c>
-      <c r="G568" s="8"/>
+      <c r="G568" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" t="s" s="2">
@@ -15280,7 +16160,9 @@
       <c r="F569" t="s" s="1">
         <v>243</v>
       </c>
-      <c r="G569" s="8"/>
+      <c r="G569" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" t="s" s="2">
@@ -15301,7 +16183,9 @@
       <c r="F570" t="s" s="1">
         <v>194</v>
       </c>
-      <c r="G570" s="8"/>
+      <c r="G570" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" t="s" s="2">
@@ -15322,7 +16206,9 @@
       <c r="F571" t="s" s="1">
         <v>311</v>
       </c>
-      <c r="G571" s="8"/>
+      <c r="G571" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" t="s" s="2">
@@ -15343,7 +16229,9 @@
       <c r="F572" t="s" s="1">
         <v>283</v>
       </c>
-      <c r="G572" s="8"/>
+      <c r="G572" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" t="s" s="2">
@@ -15364,7 +16252,9 @@
       <c r="F573" t="s" s="1">
         <v>174</v>
       </c>
-      <c r="G573" s="8"/>
+      <c r="G573" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" t="s" s="2">
@@ -15385,7 +16275,9 @@
       <c r="F574" t="s" s="1">
         <v>249</v>
       </c>
-      <c r="G574" s="8"/>
+      <c r="G574" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" t="s" s="2">
@@ -15406,7 +16298,9 @@
       <c r="F575" t="s" s="1">
         <v>197</v>
       </c>
-      <c r="G575" s="8"/>
+      <c r="G575" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" t="s" s="2">
@@ -15427,7 +16321,9 @@
       <c r="F576" t="s" s="1">
         <v>164</v>
       </c>
-      <c r="G576" s="8"/>
+      <c r="G576" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" t="s" s="2">
@@ -15448,7 +16344,9 @@
       <c r="F577" t="s" s="1">
         <v>250</v>
       </c>
-      <c r="G577" s="8"/>
+      <c r="G577" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" t="s" s="2">
@@ -15469,7 +16367,9 @@
       <c r="F578" t="s" s="1">
         <v>179</v>
       </c>
-      <c r="G578" s="8"/>
+      <c r="G578" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" t="s" s="2">
@@ -15490,7 +16390,9 @@
       <c r="F579" t="s" s="1">
         <v>180</v>
       </c>
-      <c r="G579" s="8"/>
+      <c r="G579" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" t="s" s="2">
@@ -15511,7 +16413,9 @@
       <c r="F580" t="s" s="1">
         <v>463</v>
       </c>
-      <c r="G580" s="8"/>
+      <c r="G580" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" t="s" s="2">
@@ -15532,7 +16436,9 @@
       <c r="F581" t="s" s="1">
         <v>203</v>
       </c>
-      <c r="G581" s="8"/>
+      <c r="G581" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" t="s" s="2">
@@ -15574,7 +16480,9 @@
       <c r="F583" t="s" s="1">
         <v>277</v>
       </c>
-      <c r="G583" s="8"/>
+      <c r="G583" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" t="s" s="2">
@@ -15616,7 +16524,9 @@
       <c r="F585" t="s" s="1">
         <v>189</v>
       </c>
-      <c r="G585" s="8"/>
+      <c r="G585" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" t="s" s="2">
@@ -15637,7 +16547,9 @@
       <c r="F586" t="s" s="1">
         <v>431</v>
       </c>
-      <c r="G586" s="8"/>
+      <c r="G586" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" t="s" s="2">
@@ -15658,7 +16570,9 @@
       <c r="F587" t="s" s="1">
         <v>430</v>
       </c>
-      <c r="G587" s="8"/>
+      <c r="G587" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" t="s" s="2">
@@ -15679,7 +16593,9 @@
       <c r="F588" t="s" s="1">
         <v>237</v>
       </c>
-      <c r="G588" s="8"/>
+      <c r="G588" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" t="s" s="2">
@@ -15700,7 +16616,9 @@
       <c r="F589" t="s" s="1">
         <v>424</v>
       </c>
-      <c r="G589" s="8"/>
+      <c r="G589" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" t="s" s="2">
@@ -15721,7 +16639,9 @@
       <c r="F590" t="s" s="1">
         <v>432</v>
       </c>
-      <c r="G590" s="8"/>
+      <c r="G590" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" t="s" s="2">
@@ -15742,7 +16662,9 @@
       <c r="F591" t="s" s="1">
         <v>804</v>
       </c>
-      <c r="G591" s="8"/>
+      <c r="G591" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" t="s" s="2">
@@ -15763,7 +16685,9 @@
       <c r="F592" t="s" s="1">
         <v>604</v>
       </c>
-      <c r="G592" s="8"/>
+      <c r="G592" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A593" t="s" s="2">
@@ -15784,7 +16708,9 @@
       <c r="F593" t="s" s="1">
         <v>610</v>
       </c>
-      <c r="G593" s="8"/>
+      <c r="G593" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" t="s" s="2">
@@ -15805,7 +16731,9 @@
       <c r="F594" t="s" s="1">
         <v>603</v>
       </c>
-      <c r="G594" s="8"/>
+      <c r="G594" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" t="s" s="2">
@@ -15826,7 +16754,9 @@
       <c r="F595" t="s" s="1">
         <v>284</v>
       </c>
-      <c r="G595" s="8"/>
+      <c r="G595" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" t="s" s="2">
@@ -15847,7 +16777,9 @@
       <c r="F596" t="s" s="1">
         <v>196</v>
       </c>
-      <c r="G596" s="8"/>
+      <c r="G596" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" t="s" s="2">
@@ -15868,7 +16800,9 @@
       <c r="F597" t="s" s="1">
         <v>280</v>
       </c>
-      <c r="G597" s="8"/>
+      <c r="G597" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" t="s" s="2">
@@ -15889,7 +16823,9 @@
       <c r="F598" t="s" s="1">
         <v>282</v>
       </c>
-      <c r="G598" s="8"/>
+      <c r="G598" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" t="s" s="2">
@@ -15910,7 +16846,9 @@
       <c r="F599" t="s" s="1">
         <v>427</v>
       </c>
-      <c r="G599" s="8"/>
+      <c r="G599" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" t="s" s="2">
@@ -15931,7 +16869,9 @@
       <c r="F600" t="s" s="1">
         <v>426</v>
       </c>
-      <c r="G600" s="8"/>
+      <c r="G600" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" t="s" s="2">
@@ -15952,7 +16892,9 @@
       <c r="F601" t="s" s="1">
         <v>441</v>
       </c>
-      <c r="G601" s="8"/>
+      <c r="G601" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" t="s" s="2">
@@ -15973,7 +16915,9 @@
       <c r="F602" t="s" s="1">
         <v>434</v>
       </c>
-      <c r="G602" s="8"/>
+      <c r="G602" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" t="s" s="2">
@@ -15994,7 +16938,9 @@
       <c r="F603" t="s" s="1">
         <v>435</v>
       </c>
-      <c r="G603" s="8"/>
+      <c r="G603" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" t="s" s="2">
@@ -16015,7 +16961,9 @@
       <c r="F604" t="s" s="1">
         <v>211</v>
       </c>
-      <c r="G604" s="8"/>
+      <c r="G604" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" t="s" s="2">
@@ -16036,7 +16984,9 @@
       <c r="F605" t="s" s="1">
         <v>292</v>
       </c>
-      <c r="G605" s="8"/>
+      <c r="G605" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" t="s" s="2">
@@ -16057,7 +17007,9 @@
       <c r="F606" t="s" s="1">
         <v>234</v>
       </c>
-      <c r="G606" s="8"/>
+      <c r="G606" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" t="s" s="2">
@@ -16078,7 +17030,9 @@
       <c r="F607" t="s" s="1">
         <v>314</v>
       </c>
-      <c r="G607" s="8"/>
+      <c r="G607" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" t="s" s="2">
@@ -16099,7 +17053,9 @@
       <c r="F608" t="s" s="1">
         <v>429</v>
       </c>
-      <c r="G608" s="8"/>
+      <c r="G608" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" t="s" s="2">
@@ -16120,7 +17076,9 @@
       <c r="F609" t="s" s="1">
         <v>201</v>
       </c>
-      <c r="G609" s="8"/>
+      <c r="G609" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" t="s" s="2">
@@ -16141,7 +17099,9 @@
       <c r="F610" t="s" s="1">
         <v>291</v>
       </c>
-      <c r="G610" s="8"/>
+      <c r="G610" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" t="s" s="2">
@@ -16162,7 +17122,9 @@
       <c r="F611" t="s" s="1">
         <v>672</v>
       </c>
-      <c r="G611" s="8"/>
+      <c r="G611" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" t="s" s="2">
@@ -16183,7 +17145,9 @@
       <c r="F612" t="s" s="1">
         <v>663</v>
       </c>
-      <c r="G612" s="8"/>
+      <c r="G612" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" t="s" s="2">
@@ -16204,7 +17168,9 @@
       <c r="F613" t="s" s="1">
         <v>671</v>
       </c>
-      <c r="G613" s="8"/>
+      <c r="G613" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A614" t="s" s="2">
@@ -16225,7 +17191,9 @@
       <c r="F614" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="G614" s="8"/>
+      <c r="G614" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A615" t="s" s="2">
@@ -16246,7 +17214,9 @@
       <c r="F615" t="s" s="1">
         <v>375</v>
       </c>
-      <c r="G615" s="8"/>
+      <c r="G615" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A616" t="s" s="2">
@@ -16267,7 +17237,9 @@
       <c r="F616" t="s" s="1">
         <v>566</v>
       </c>
-      <c r="G616" s="8"/>
+      <c r="G616" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A617" t="s" s="2">
@@ -16288,7 +17260,9 @@
       <c r="F617" t="s" s="1">
         <v>349</v>
       </c>
-      <c r="G617" s="8"/>
+      <c r="G617" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" t="s" s="2">
@@ -16309,7 +17283,9 @@
       <c r="F618" t="s" s="1">
         <v>543</v>
       </c>
-      <c r="G618" s="8"/>
+      <c r="G618" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" t="s" s="2">
@@ -16330,7 +17306,9 @@
       <c r="F619" t="s" s="1">
         <v>516</v>
       </c>
-      <c r="G619" s="8"/>
+      <c r="G619" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A620" t="s" s="2">
@@ -16372,7 +17350,9 @@
       <c r="F621" t="s" s="1">
         <v>545</v>
       </c>
-      <c r="G621" s="8"/>
+      <c r="G621" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" t="s" s="2">
@@ -16393,7 +17373,9 @@
       <c r="F622" t="s" s="1">
         <v>29</v>
       </c>
-      <c r="G622" s="8"/>
+      <c r="G622" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A623" t="s" s="2">
@@ -16414,7 +17396,9 @@
       <c r="F623" t="s" s="1">
         <v>681</v>
       </c>
-      <c r="G623" s="8"/>
+      <c r="G623" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" t="s" s="2">
@@ -16435,7 +17419,9 @@
       <c r="F624" t="s" s="1">
         <v>635</v>
       </c>
-      <c r="G624" s="8"/>
+      <c r="G624" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" t="s" s="2">
@@ -16456,7 +17442,9 @@
       <c r="F625" t="s" s="1">
         <v>640</v>
       </c>
-      <c r="G625" s="8"/>
+      <c r="G625" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A626" t="s" s="2">
@@ -16477,7 +17465,9 @@
       <c r="F626" t="s" s="1">
         <v>632</v>
       </c>
-      <c r="G626" s="8"/>
+      <c r="G626" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" t="s" s="2">
@@ -16498,7 +17488,9 @@
       <c r="F627" t="s" s="1">
         <v>633</v>
       </c>
-      <c r="G627" s="8"/>
+      <c r="G627" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A628" t="s" s="2">
@@ -16519,7 +17511,9 @@
       <c r="F628" t="s" s="1">
         <v>744</v>
       </c>
-      <c r="G628" s="8"/>
+      <c r="G628" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A629" t="s" s="2">
@@ -16540,7 +17534,9 @@
       <c r="F629" t="s" s="1">
         <v>743</v>
       </c>
-      <c r="G629" s="8"/>
+      <c r="G629" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A630" t="s" s="2">
@@ -16561,7 +17557,9 @@
       <c r="F630" t="s" s="1">
         <v>739</v>
       </c>
-      <c r="G630" s="8"/>
+      <c r="G630" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A631" t="s" s="2">
@@ -16582,7 +17580,9 @@
       <c r="F631" t="s" s="1">
         <v>406</v>
       </c>
-      <c r="G631" s="8"/>
+      <c r="G631" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A632" t="s" s="2">
@@ -16603,7 +17603,9 @@
       <c r="F632" t="s" s="1">
         <v>794</v>
       </c>
-      <c r="G632" s="8"/>
+      <c r="G632" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A633" t="s" s="3">
@@ -16624,7 +17626,9 @@
       <c r="F633" t="s" s="4">
         <v>471</v>
       </c>
-      <c r="G633" s="9"/>
+      <c r="G633" s="9">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G633">
